--- a/standOff_List.xlsx
+++ b/standOff_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Nextcloud\IBI\Masterarbeit\RegC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B707FE-E0FC-4DBF-8417-6FD65688EBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3CFF2-8715-4841-B3E1-8AAC90B96171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
   </bookViews>
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/standOff_List.xlsx
+++ b/standOff_List.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Nextcloud\IBI\Masterarbeit\RegC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC3CFF2-8715-4841-B3E1-8AAC90B96171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49F8C4-C2A4-40DC-891C-EE0FAB080799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
   </bookViews>
   <sheets>
-    <sheet name="identified copies" sheetId="1" r:id="rId1"/>
-    <sheet name="unidentified" sheetId="2" r:id="rId2"/>
+    <sheet name="Blatt 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="394">
-  <si>
-    <t>Primary Call No Desc</t>
-  </si>
-  <si>
-    <t>Doc No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="496">
   <si>
     <t>Author</t>
   </si>
@@ -60,72 +53,15 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Tag 300</t>
-  </si>
-  <si>
-    <t>Language ID</t>
-  </si>
-  <si>
-    <t>Link to SOLO</t>
-  </si>
-  <si>
-    <t>(4⁰)</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>Le Brun des Marettes, Jean-Baptiste</t>
-  </si>
-  <si>
-    <t>Voyages Liturgiques De France, Ou Recherches Faites En Diverses Villes Du Royaume</t>
-  </si>
-  <si>
-    <t>FRE</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/f/89vilt/oxfaleph013638469</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Chez Florentin Delaulne</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/f/89vilt/oxfaleph015078336</t>
-  </si>
-  <si>
-    <t>*ana</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>*cert</t>
-  </si>
-  <si>
     <t>regC-bib-Meyer1561</t>
   </si>
   <si>
-    <t>copy-not-identified</t>
-  </si>
-  <si>
     <t>regC-bib-Lebrun1718</t>
   </si>
   <si>
     <t>Commentarii siue annales rerum Flandricarum libri septendecim</t>
   </si>
   <si>
-    <t>Meyer, Jacques de</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
     <t>Antuerpiæ</t>
   </si>
   <si>
@@ -144,18 +80,6 @@
     <t>Bonifacio, Baldassarre, 1585-1659, author.</t>
   </si>
   <si>
-    <t>[24] 804 pages ; 4°</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph020580771</t>
-  </si>
-  <si>
-    <t>Balthassaris Bonifacii ludicra historia</t>
-  </si>
-  <si>
-    <t>Venetiis, : M. DC. LII. Apud Paulum Baleonium.</t>
-  </si>
-  <si>
     <t>copy-identified</t>
   </si>
   <si>
@@ -168,42 +92,12 @@
     <t>8° D 70 Jur.</t>
   </si>
   <si>
-    <t>Falster, Christian. pre20</t>
-  </si>
-  <si>
-    <t>Christiani Falsteri Supplementum lingvæ Latinæ,sive, Observationes ad lexicon Fabro-Cellarianum, e</t>
-  </si>
-  <si>
-    <t>Flensburgi 1717</t>
-  </si>
-  <si>
-    <t>(8⁰)</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014813219</t>
-  </si>
-  <si>
     <t>The Old and New Testament connected in the history of the Jews and neighbouring nations</t>
   </si>
   <si>
     <t xml:space="preserve">Prideaux, Humphrey, 1648-1724 </t>
   </si>
   <si>
-    <t>London : printed for R. Knaplock, and J. Tonson</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>1716-18</t>
-  </si>
-  <si>
-    <t>013546450</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/f/89vilt/oxfaleph013546450</t>
-  </si>
-  <si>
     <t>regC-bib-Prideaux</t>
   </si>
   <si>
@@ -213,18 +107,9 @@
     <t>Examen circuli quadraturae hactenus editarum celeberrimae, : quam Apollonius alter, magno illo Pergaeo non minor geometra, R. P. Gregorius a Sancto Vincentio Societatis Iesu exposuit.</t>
   </si>
   <si>
-    <t>Lugduni, : Apud Guillelmum Barbier, typographum regium</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/f/89vilt/oxfaleph019457345</t>
-  </si>
-  <si>
     <t>regC-bib-Leotaud1654</t>
   </si>
   <si>
-    <t>shelfmark OLD</t>
-  </si>
-  <si>
     <t>AA 35 Jur.</t>
   </si>
   <si>
@@ -240,31 +125,10 @@
     <t>Horologiographia, post priorem æd. recogn. &amp; aucta.</t>
   </si>
   <si>
-    <t>Basil. 1533</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014681986</t>
-  </si>
-  <si>
     <t>regC-bib-Münster1533</t>
   </si>
   <si>
     <t>AA 34 Jur.</t>
-  </si>
-  <si>
-    <t>Caroli Renaldinii Opus mathematicum, in quo vtraque algebra nouis præceptis nouis(que) demonstratio</t>
-  </si>
-  <si>
-    <t>Bononiæ 1655</t>
-  </si>
-  <si>
-    <t>&lt;Pt.1.&gt; ; (4⁰)</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014207473</t>
-  </si>
-  <si>
-    <t>Renaldini, Carlo conte</t>
   </si>
   <si>
     <t>regC-bib-Renaldini1654</t>
@@ -308,12 +172,6 @@
     </r>
   </si>
   <si>
-    <t>Luteciæ-Parisiorum, : Sumtibus Caroli Robustel, via Jacobea, ad insigne arboris Palmæ.</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/primo-explore/fulldisplay?docid=oxfaleph013635566&amp;context=L&amp;vid=SOLO&amp;lang=en_US&amp;search_scope=LSCOP_ALL&amp;adaptor=Local%20Search%20Engine&amp;tab=local&amp;query=any,contains,mabillon%20supplementum&amp;offset=0</t>
-  </si>
-  <si>
     <t>regC-bib-Mabillon1704</t>
   </si>
   <si>
@@ -326,18 +184,9 @@
     <t>Roper, William</t>
   </si>
   <si>
-    <t>Oxford? : Veneunt apud editorem</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/f/89vilt/oxfaleph013256285</t>
-  </si>
-  <si>
     <t>regC-bib-Roper1716</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>8° C 63 Jur.</t>
   </si>
   <si>
@@ -350,18 +199,6 @@
     <t>Vertot, abbé de, 1655-1735.</t>
   </si>
   <si>
-    <t>The history of the revolutions that happened in the government of the Roman republic, English'd by m</t>
-  </si>
-  <si>
-    <t>Lond. 1720</t>
-  </si>
-  <si>
-    <t>2 vols. ; (8⁰)</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014358485</t>
-  </si>
-  <si>
     <t>regC-bib-ActaEruditorum1719</t>
   </si>
   <si>
@@ -386,33 +223,9 @@
     <t>AA 48 Jur.</t>
   </si>
   <si>
-    <t>Grollier de Servière, Gaspard. pre20</t>
-  </si>
-  <si>
-    <t>Recueil d'ouvrages curieux de mathématique et de mécanique, ou Description du cabinet de monsieur</t>
-  </si>
-  <si>
-    <t>Lyon 1719</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014431417</t>
-  </si>
-  <si>
     <t>AA 29 Jur.</t>
   </si>
   <si>
-    <t>Valier, Agostino card. pre20</t>
-  </si>
-  <si>
-    <t>Augustini Valerii ... opusculum ... de cautione adhibenda in edendis libris. Nec non Bernardi cardin</t>
-  </si>
-  <si>
-    <t>Patavii 1719</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014146391</t>
-  </si>
-  <si>
     <t>regC-bib-Valier1719</t>
   </si>
   <si>
@@ -425,33 +238,12 @@
     <t>Sannazaro, Jacopo, 1458-1530.</t>
   </si>
   <si>
-    <t>Jacobi ... Sannazarii ... poëmata. Accessit ejusdem vita, J.A. Vulpio auctore, item G. Altilii et H</t>
-  </si>
-  <si>
-    <t>Patavii 1719 (1718,19)</t>
-  </si>
-  <si>
-    <t>&lt;[2 pt.].&gt; ; (4⁰)</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014172302</t>
-  </si>
-  <si>
     <t>AA 30 Jur.</t>
   </si>
   <si>
-    <t>Garofalo, Biagio. pre20</t>
-  </si>
-  <si>
     <t>B. Caryophili ... dissertationum miscellanearum pars prima [ed. by T.M. Minorellus].</t>
   </si>
   <si>
-    <t>Romæ 1718</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014082643</t>
-  </si>
-  <si>
     <t>regC-bib-Garofalo1718</t>
   </si>
   <si>
@@ -464,15 +256,6 @@
     <t>Opere de Galileo Galilei. Nuova ed. [ed. by T. Buonaventuri, G. Grandi and B. Bresciani].</t>
   </si>
   <si>
-    <t>Firenze 1718</t>
-  </si>
-  <si>
-    <t>3 tom. ; (4⁰)</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014432939</t>
-  </si>
-  <si>
     <t>regC-bib-Galilei1718</t>
   </si>
   <si>
@@ -482,18 +265,6 @@
     <t>Dominici Gulielmini ... opera omnia mathematica, hydraulica, medica, et physica.</t>
   </si>
   <si>
-    <t>Genevæ 1719</t>
-  </si>
-  <si>
-    <t>2 tom. ; (4⁰)</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014186483</t>
-  </si>
-  <si>
-    <t>Guglielmini, Giovanni Domenico</t>
-  </si>
-  <si>
     <t>regC-bib-Guglielmini1719</t>
   </si>
   <si>
@@ -503,15 +274,6 @@
     <t>Hearne, Thomas, 1678-1735</t>
   </si>
   <si>
-    <t>Oxford, : Printed at the Theater</t>
-  </si>
-  <si>
-    <t>cxliv, 327, [1] p., [2] leaves of plates (1 folded) : ill. ; 8°.</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/ogbd98/alma990132537230107026</t>
-  </si>
-  <si>
     <t>regC-bib-Hearne1720</t>
   </si>
   <si>
@@ -527,66 +289,18 @@
     <t>Willis, Browne, 1682-1760.</t>
   </si>
   <si>
-    <t>An history of the mitred Parliamentary abbies, and conventual cathedral churches. : Shewing the time</t>
-  </si>
-  <si>
-    <t>London, : Printed by W. Bowyer, for R. Gosling at the Miter and Crown against St. Dunstan's Church i</t>
-  </si>
-  <si>
-    <t>2 v. ([8], 336, 71 [i.e.79], [1]; xi, [5], 380, [34], 30 p.) ; 8⁰.</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph013540715</t>
-  </si>
-  <si>
     <t>8° D 52 Jur.</t>
   </si>
   <si>
-    <t>A survey of the Cathedral Church of St. David's, and the edifices belonging to it, as they stood in</t>
-  </si>
-  <si>
-    <t>London: : Printed for R. Gosling, at the Mitre and Crown against St. Dunstan's Church in Fleet-stree</t>
-  </si>
-  <si>
-    <t>[12], 202, [10] p., [7] leaves of plates (some folded) : ill., coats of arms, plan ; 8⁰.</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph013541041</t>
-  </si>
-  <si>
     <t>8° D 53 Jur.</t>
   </si>
   <si>
     <t>Willis, Browne, 1682-1760</t>
   </si>
   <si>
-    <t>A survey of the Cathedral-Church of Landaff. : Containing the inscriptions upon the monuments, with</t>
-  </si>
-  <si>
-    <t>London: : Printed for R. Gosling, at the Mitre and Crown against St.Dunstan's Church in Fleetstreet.</t>
-  </si>
-  <si>
-    <t>[4], 228 p., [3] folded leaves of plates : ill., plan ; 8⁰.</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph013540710</t>
-  </si>
-  <si>
     <t>8° D 54 Jur.</t>
   </si>
   <si>
-    <t>A survey of the Cathedral-Church of St. Asaph: and the edifices belonging to it. : Together with an</t>
-  </si>
-  <si>
-    <t>London, : Printed for R. Gosling at the Middle Temple-Gate in Fleet-street., 1720..</t>
-  </si>
-  <si>
-    <t>[10], 303, [1], 303-307, [3] p., [2] folded leaves of plates : ill., plan ; 8⁰.</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph013540713</t>
-  </si>
-  <si>
     <t>regC-bib-Willis1718</t>
   </si>
   <si>
@@ -605,18 +319,9 @@
     <t>Struve, Burkhard Gotthelf, 1671-1738</t>
   </si>
   <si>
-    <t>Burcardi Gotthelffii Struvi i Introductio ad notitiam rei litteraria &amp; usum bibliothecarum, accessit</t>
-  </si>
-  <si>
     <t>[4th ed.].</t>
   </si>
   <si>
-    <t>Ienæ 1715,16</t>
-  </si>
-  <si>
-    <t>http://solo.bodleian.ox.ac.uk/primo_library/libweb/action/dlDisplay.do?vid=OXVU1&amp;docId=oxfaleph014015899</t>
-  </si>
-  <si>
     <t>regC-bib-Struve1715</t>
   </si>
   <si>
@@ -629,15 +334,6 @@
     <t>Ernulf, Bishop of Rochester, 1040-1124, author. </t>
   </si>
   <si>
-    <t>Oxonii, : E Theatro Sheldoniano</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990108430110107026</t>
-  </si>
-  <si>
     <t>regC-bib-Ernulf1720</t>
   </si>
   <si>
@@ -647,36 +343,15 @@
     <t>Quintilian.</t>
   </si>
   <si>
-    <t>M. Fabij Quintiliani ... oratoriarū institutionū libri. xij. [With] M. Fabij Quintiliani ... xix.</t>
-  </si>
-  <si>
-    <t>Par. 1527</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990146226100107026</t>
-  </si>
-  <si>
     <t>regC-bib-Quintilian1527</t>
   </si>
   <si>
     <t>8° D 71 Jur.</t>
   </si>
   <si>
-    <t>Huet, Pierre-Daniel, 1630-1721 1630-1721.</t>
-  </si>
-  <si>
     <t>Pet. Dan. Huetii ... Commentarius de rebus ad eum pertinentibus.</t>
   </si>
   <si>
-    <t>Amst. 1718</t>
-  </si>
-  <si>
-    <t>(12⁰)</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990144441750107026</t>
-  </si>
-  <si>
     <t>regC-bib-Huet1718</t>
   </si>
   <si>
@@ -695,12 +370,6 @@
     <t>Thomæ Sprotti Chronica. E codice antiquo MSto. in bibliotheca praenobilis adolescentis Dni. Edvardi Dering, de Surrenden Dering in agro Cantiano, Baronetti, descripsit ediditque Tho. Hearnius, qui &amp; alia quaedam opuscula, è codicibus MSStis. authenticis à seipso itidem descripta, subjecit.</t>
   </si>
   <si>
-    <t>Oxonii, E Theatro Sheldoniano</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990135051310107026</t>
-  </si>
-  <si>
     <t>regC-bib-Sprott1719</t>
   </si>
   <si>
@@ -713,18 +382,6 @@
     <t>Nicolson, William, 1655-1727.</t>
   </si>
   <si>
-    <t>The English historical library. : In three parts. Giving a short view and character of most of our h</t>
-  </si>
-  <si>
-    <t>London, : Printed for Timothy Childe at the White-Hart: and Robert Knaplock at the Bishop's-Head, in</t>
-  </si>
-  <si>
-    <t>xviii, 272 [i.e. 266] p. ; fol.</t>
-  </si>
-  <si>
-    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990135290490107026</t>
-  </si>
-  <si>
     <t>regC-bib-Nicolson1714</t>
   </si>
   <si>
@@ -1166,9 +823,6 @@
     <t>regC-bib-Niemann1671</t>
   </si>
   <si>
-    <t>8⁰ Y 361 BS</t>
-  </si>
-  <si>
     <t>990144692230107026</t>
   </si>
   <si>
@@ -1251,6 +905,657 @@
   </si>
   <si>
     <t>S 12.14,15 Th.</t>
+  </si>
+  <si>
+    <t>8° Z 412 Th.</t>
+  </si>
+  <si>
+    <t>990140557270107026</t>
+  </si>
+  <si>
+    <t>Le Neve, John, 1679-1741.</t>
+  </si>
+  <si>
+    <t>The lives and characters [&amp;c.] of all the Protestant bishops of the Church of England since ... 1559. Vol.1. [in 2 pt. No more publ.].</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>221850572410007026</t>
+  </si>
+  <si>
+    <t>006026040</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990140557270107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>8° Y 361 BS</t>
+  </si>
+  <si>
+    <t>regC-bib-Le_Neve1720</t>
+  </si>
+  <si>
+    <t>[Mafteaḥ leshon ha-ḳodesh] = Clavis linguæ sanctæ, : continens grammaticalem explicationem 564. Versiculorum ex Libro Psalmorum, &amp; 546. Versiculorum ex cæteris libris Veteris Testamenti: in quibus omnes radices purè Hebraicæ Veteris Testamenti, cum nonnullis radicibus Chaldaicis (occurrentibus tamen in libris Hebraicis) inveniuntur: &amp; in hac clave referantur, &amp; juxta grammaticas regulas, resolvuntur, &amp; explicantur.</t>
+  </si>
+  <si>
+    <t>Trott, Nicholas, 1663-1740</t>
+  </si>
+  <si>
+    <t>990135521710107026</t>
+  </si>
+  <si>
+    <t>fol. BS. 50</t>
+  </si>
+  <si>
+    <t>Oxonii</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135521710107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Trott1719</t>
+  </si>
+  <si>
+    <t>C 11.16 Th.</t>
+  </si>
+  <si>
+    <t>8° X 68,69 Th.</t>
+  </si>
+  <si>
+    <t>990135042490107026</t>
+  </si>
+  <si>
+    <t>A collection of all the ecclesiastical laws, canons, answers, or rescripts, with other memorials concerning the government, discipline and worship of the Church of England, from its first foundation to the Conquest, that have hitherto been publish'd in the Latin and Saxonic tongues. And of all the canons and constitutions ecclesiastical, made since the Conquest and before the Reformation, in any National Council, or in the provincial synods of Canterbury and York, that have hitherto been publish'd in the Latin tongue. Now first translated into English with explanatory notes, and such glosses from Lyndwood and Athone, as were thought most useful. Part the First. [- Second.] /</t>
+  </si>
+  <si>
+    <t>Printed for Robert Knaplock in St Paul's Church-Yard and Samuel Ballard in Little-Britain</t>
+  </si>
+  <si>
+    <t>London: :</t>
+  </si>
+  <si>
+    <t>Church of England--Government--Early works to 1800.; Church of England--Politics and government--Early works to 1800.; Christianity--Great Britain--Early works to 1800.; Ecclesiastical law--Great Britain--Early works to 1800.</t>
+  </si>
+  <si>
+    <t>MDCCXX. [1720]</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>221742987240007026</t>
+  </si>
+  <si>
+    <t>005352202</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135042490107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>Johnson, John, 1662-1725</t>
+  </si>
+  <si>
+    <t>regC-bib-Johnson1720</t>
+  </si>
+  <si>
+    <t>8° M 236 Th.</t>
+  </si>
+  <si>
+    <t>990135535610107026</t>
+  </si>
+  <si>
+    <t>Lux, William, 1694?-</t>
+  </si>
+  <si>
+    <t>Poems on several occasions: viz. The garden. The phænomenon, a poem on the late surprizing meteor, seen in the sky, Mar. 19th. 1719. A vision, ...</t>
+  </si>
+  <si>
+    <t>printed by Leon Lichfield for Stephen Fletcher and are to be sold by James Knapton London and by Corn Crownfield in Cambridge</t>
+  </si>
+  <si>
+    <t>Oxford :</t>
+  </si>
+  <si>
+    <t>1719.</t>
+  </si>
+  <si>
+    <t>221788813210007026</t>
+  </si>
+  <si>
+    <t>005452860</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135535610107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Lux1719</t>
+  </si>
+  <si>
+    <t>990205807710107026</t>
+  </si>
+  <si>
+    <t>Balthassaris Bonifacii ludicra historia /</t>
+  </si>
+  <si>
+    <t>M DC LII Apud Paulum Baleonium</t>
+  </si>
+  <si>
+    <t>Venetiis, :</t>
+  </si>
+  <si>
+    <t>Wit and humor--Early works to 1800.</t>
+  </si>
+  <si>
+    <t>1652</t>
+  </si>
+  <si>
+    <t>[1652]</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>221913858400007026</t>
+  </si>
+  <si>
+    <t>006417456</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990205807710107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990148132190107026</t>
+  </si>
+  <si>
+    <t>Falster, Christian.</t>
+  </si>
+  <si>
+    <t>Christiani Falsteri Supplementum lingvæ Latinæ,sive, Observationes ad lexicon Fabro-Cellarianum, ed. mdccx. Adjectis notis cum præfatione S. Lintrupii.</t>
+  </si>
+  <si>
+    <t>Flensburgi</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>221908010590007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled and plain blind-tooled calf over pasteboards; sprinkled red-edged leaves. Shelfmark written in black ink on fore edge and shelfmark number written in white on the spine.; !!! Bought by the Bodleian in 1720 for £ 0-3-6; see Register C (Library Record c. 854), pencil fol. 11r for 1720.; !!! 18 cm.</t>
+  </si>
+  <si>
+    <t>006851975</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990148132190107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990146819860107026</t>
+  </si>
+  <si>
+    <t>Basil.</t>
+  </si>
+  <si>
+    <t>Association copies (Provenance)--Savile; Science Miscellaneous pre20</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>221759067470007026</t>
+  </si>
+  <si>
+    <t>!!! 17th-century blind-tooled calf over paste boards; two ties lost. On both covers intersecting fillets form frames, with an ornamental roll and foliate stamp as centrepiece. Shelfmark numbers written across the fore edge in black ink twice, one partly obscured by ink smudge, and on the head of the spine in white. Smudges of white paint across the outside of the lower cover. Name of the author written across the fore edge in black ink in a 16th-century hand (?). Two pieces of an unidentified medieval parchment manuscript used as reinforcement.; !!! "Scientia inflat, charitas edificat. ..." in a 16th-century hand in black ink on tt4v.; !!! Fletcher, Stephen, 1680-1727, seller.; !!! Purchased by the Bodleian in 1719 for £0. 2. 0. from Stephen Fletcher, bookseller; see Register C (Library Record c. 854), pencil fol. 10r for 1720, with note on purchase arrangements.; !!! 22 cm.</t>
+  </si>
+  <si>
+    <t>006707084</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990146819860107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990142074730107026</t>
+  </si>
+  <si>
+    <t>Renaldini, Carlo conte.</t>
+  </si>
+  <si>
+    <t>Caroli Renaldinii Opus mathematicum, in quo vtraque algebra nouis præceptis nouis(que) demonstrationibus illustratur. Methodus quoque resolutionis &amp; compositionis mathematicæ copiosiùs ad abstrusiora theoremata enodanda declaratur.</t>
+  </si>
+  <si>
+    <t>Bononiæ</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>221907985750007026</t>
+  </si>
+  <si>
+    <t>006193082</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990142074730107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990144314170107026</t>
+  </si>
+  <si>
+    <t>Grollier de Servière, Gaspard.</t>
+  </si>
+  <si>
+    <t>Recueil d'ouvrages curieux de mathématique et de mécanique, ou Description du cabinet de monsieur Grollier de Servière, par son petit fils.</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Association copies (Provenance)--Douce</t>
+  </si>
+  <si>
+    <t>222018213800007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century ink-tooled (fillets, fleuron and rule) sprinkled calf over pasteboards with mottled red- and green-edged leaves. Formerly chained; staple marks of a hasp on top of upper cover. Shelfmark number 48 written in black ink on spine and twice on fore edge, once partly obscured by red ink smudge.; !!! Bought by the Bodleian in 1720 for £ 0. 13. 0; see Register C (Library Record c. 854), pencil fol. 12.; !!! 26 cm.</t>
+  </si>
+  <si>
+    <t>006435323</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990144314170107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990141463910107026</t>
+  </si>
+  <si>
+    <t>Valier, Agostino card.</t>
+  </si>
+  <si>
+    <t>Augustini Valerii ... opusculum ... de cautione adhibenda in edendis libris. Nec non Bernardi cardinalis Naugerii vita, eodem Valerio auctore. Accessere P. Barrocii orationes tres. Nonnullae item aliae patriciorum Venetorum.</t>
+  </si>
+  <si>
+    <t>Patavii</t>
+  </si>
+  <si>
+    <t>221753195100007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled and plain blind-tooled panelled calf over pasteboards. Blind-tooled edges. Sprinkled green and red-edged leaves. Shelfmark number written on spine in white and twice across fore edge in black ink, once partly obscured by red ink. Formerly chained; staple marks of a hasp on top of upper cover.; !!! Bought by the Bodleian in 1720 for £ 0-6-6 (for three volumes); see Register C (Library Record c. 854), pencil fol. 12.; !!! 25 cm.</t>
+  </si>
+  <si>
+    <t>006125094</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990141463910107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990141723020107026</t>
+  </si>
+  <si>
+    <t>Jacobi ... Sannazarii ... poëmata. Accessit ejusdem vita, J.A. Vulpio auctore, item G. Altilii et H. Fascitelli carmina nonnulla.</t>
+  </si>
+  <si>
+    <t>1719 (1718,19)</t>
+  </si>
+  <si>
+    <t>221701882660007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled and plain blind-tooled panelled calf over pasteboards. Blind-tooled edges. Sprinkled green and red-edged leaves. Shelfmark number written on spine in white and twice across fore edge in black ink, once partly obscured by red ink. Formerly chained; staple marks of a hasp on top of upper cover.; !!! Bought by the Bodleian in 1720 for £ 0-8-6; see Register C (Library Record c. 854), pencil fol. 12.; !!! 25 cm.</t>
+  </si>
+  <si>
+    <t>006154594</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990141723020107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990140826430107026</t>
+  </si>
+  <si>
+    <t>Garofalo, Biagio.</t>
+  </si>
+  <si>
+    <t>Romæ</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>221669012120007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled blind-tooled panelled calf over pasteboards. Blind-tooled edges. Sprinkled green and red-edged leaves. Shelfmark number written on spine in white and twice across fore edge in black ink, once partly obscured by red ink. Formerly chained; staple marks of a hasp on top of upper cover.; !!! Bought by the Bodleian in 1720 for £ 0-12-0; see Register C (Library Record c. 854), pencil fol. 12.; !!! 25 cm.</t>
+  </si>
+  <si>
+    <t>006055406</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990140826430107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990144329390107026</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Association copies (Provenance)--Mortara</t>
+  </si>
+  <si>
+    <t>221641340900007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled and plain blind-tooled panelled calf over pasteboards. Blind-tooled edges. Sprinkled green and red-edged leaves. Shelfmark number written on spine in white and twice across fore edge in black ink, once partly obscured by red ink. Formerly chained; staple marks of a hasp on top of upper cover.; !!! Bought by the Bodleian in 1720 for £ 1-10-0 (for three volumes); see Register C (Library Record c. 854), pencil fol. 12.; !!! 26 cm.</t>
+  </si>
+  <si>
+    <t>006436911</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990144329390107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990141864830107026</t>
+  </si>
+  <si>
+    <t>Guglielmini, Giovanni Domenico.</t>
+  </si>
+  <si>
+    <t>Genevæ</t>
+  </si>
+  <si>
+    <t>221854079890007026</t>
+  </si>
+  <si>
+    <t>006170236</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990141864830107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>v.1</t>
+  </si>
+  <si>
+    <t>990135407150107026</t>
+  </si>
+  <si>
+    <t>An history of the mitred Parliamentary abbies, and conventual cathedral churches. : Shewing the times of their respective foundations, and what alterations they have undergone. With some descriptions of their monuments, and dimensions of their buildings, &amp;c. Together with a catalogue of their abbats, priors, &amp;c. To which are annexed, several other lists of the principals of divers monasteries; the number of monks at the surrender, and the names of the last abbats, priors, &amp;c. who signed the same; as far as they have come to hand. With an exact account of those religious men and women, and chantry priests, receiving pensions throughout England and Wales, An. 1553. A work, among other uses, necessary to give light to several charters sans date; and helpful to such who shall treat of families and dignified persons. For whose benefit are subjoined large indexes. The whole extracted out of very curious manuscripts, &amp;c. which have been many years colecting by the most eminent antiquaries; and faithfully published. /</t>
+  </si>
+  <si>
+    <t>Printed by W Bowyer for R Gosling at the Miter and Crown against St Dunstan's Church in Fleetstreet</t>
+  </si>
+  <si>
+    <t>London, :</t>
+  </si>
+  <si>
+    <t>Abbeys--England--Early works to 1800.; Cathedrals--England--Early works to 1800.; England--Church history--Early works to 1800.</t>
+  </si>
+  <si>
+    <t>1718. [-MDCCXIX.].</t>
+  </si>
+  <si>
+    <t>222023630790007026</t>
+  </si>
+  <si>
+    <t>!!! Rectangular white paper booklabel of the Bodleian Library (1960s/70s).; !!! 18th-century sprinkled blind-tooled calf over pasteboards; blind-tooled edges; sprinkled red-edged leaves. Shelfmark written in black ink on fore-edge and shelfmark number written in white on spine. Bookbinder's sign (?) on rear pastedown in black ink with '2 vol.'.; !!! Bought by the Bodleian in 1720 for £ 1-8-0 (for both volumes); see Register C (Library Record c. 854), pencil fol. 12r for 1720.; !!! 21 cm.</t>
+  </si>
+  <si>
+    <t>010417353</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135407150107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990135410410107026</t>
+  </si>
+  <si>
+    <t>A survey of the Cathedral Church of St. David's, and the edifices belonging to it, as they stood in the year 1715. : To which is added, some memoirs relating thereto and the country adjacent, from a MS wrote about the latter end of Queen Elizabeth's reign. Together, with an account of the arch-bishops, bishops, precentors, chancellors, treasurers, and arch-deacons of the See of St. David's. /</t>
+  </si>
+  <si>
+    <t>Printed for R Gosling at the Mitre and Crown against St Dunstan's Church in Fleet-street</t>
+  </si>
+  <si>
+    <t>St. Davids Cathedral--Early works to 1800.</t>
+  </si>
+  <si>
+    <t>1717..</t>
+  </si>
+  <si>
+    <t>222023677550007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled blind-tooled calf over pasteboards; blind-tooled edges; sprinkled red-edged leaves. Shelfmark written in black ink on fore-edge. Bookbinder's sign (?) in black ink on rear pastedown.; !!! Bought by the Bodleian in 1720 for £ 0-6-0; see Register C (Library Record c. 854), pencil fol. 12r for 1720.; !!! 21 cm.</t>
+  </si>
+  <si>
+    <t>005429330</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135410410107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990135407100107026</t>
+  </si>
+  <si>
+    <t>A survey of the Cathedral-Church of Landaff. : Containing the inscriptions upon the monuments, with an account of the bishops and other dignitaries belonging to the same; what other preferments they enjoy'd; and the times of their decease, places of burial, and epitaphs. To which is subjoin'd a large appendix of records, and other curious matters relating thereto. /</t>
+  </si>
+  <si>
+    <t>Printed for R Gosling at the Mitre and Crown against StDunstan's Church in Fleetstreet</t>
+  </si>
+  <si>
+    <t>Llandaff Cathedral (Llandaff, Wales); Church of England.--Diocese of Llandaff; Saint David's (Wales : Diocese)--History.</t>
+  </si>
+  <si>
+    <t>1719..</t>
+  </si>
+  <si>
+    <t>222023614690007026</t>
+  </si>
+  <si>
+    <t>005428541</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135407100107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990147362170107026</t>
+  </si>
+  <si>
+    <t>Willis, Browne.</t>
+  </si>
+  <si>
+    <t>A survey of the cathedral-church of St. Asaph: and the edifices belonging to it.</t>
+  </si>
+  <si>
+    <t>Association copies (Provenance)--Gough; Geography Wales pre20</t>
+  </si>
+  <si>
+    <t>221888739330007026</t>
+  </si>
+  <si>
+    <t>Bought by the Bodleian in 1720 for £ 0-7-0; see Register C (Library Record c. 854), pencil fol. 12r for 1720.</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled blind-tooled calf over pasteboards; blind-tooled edges; sprinkled red-edged leaves. Shelfmark written in black ink on fore-edge. Bookbinder's sign (?) in black ink on rear pastedown.; !!! Bought by the Bodleian in 1720 for £ 0-7-0; see Register C (Library Record c. 854), pencil fol. 12r for 1720.; !!! 21 cm.</t>
+  </si>
+  <si>
+    <t>006766658</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990147362170107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990140158990107026</t>
+  </si>
+  <si>
+    <t>Burcardi Gotthelffii Struvi i Introductio ad notitiam rei litteraria &amp; usum bibliothecarum, accessit dissertatio de doctis impostoribus. Huic 3æ ed. accedunt supplementa necessaria et oratio de meritis Germanorum in historiam.</t>
+  </si>
+  <si>
+    <t>Ienæ</t>
+  </si>
+  <si>
+    <t>Bibliography Miscellaneous pre20</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1715,16</t>
+  </si>
+  <si>
+    <t>221692702270007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century sprinkled blind-tooled calf over pasteboards; sprinkled red-edged leaves. Shelfmark written in black ink on fore edge and shelfmark number written in white on the spine.; !!! Bought by the Bodleian in 1720 for £ 0-4-0; see Register C (Library Record c. 854), pencil fol. 12r for 1720.; !!! 17 cm.</t>
+  </si>
+  <si>
+    <t>005982013</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990140158990107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990144441750107026</t>
+  </si>
+  <si>
+    <t>Huet, Pierre-Daniel, 1630-1721. 1630-1721</t>
+  </si>
+  <si>
+    <t>221897477580007026</t>
+  </si>
+  <si>
+    <t>006448999</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990144441750107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990146226100107026</t>
+  </si>
+  <si>
+    <t>M. Fabij Quintiliani ... oratoriarū institutionū libri. xij. [With] M. Fabij Quintiliani ... xix. declamationes argustissimæ.</t>
+  </si>
+  <si>
+    <t>Par.</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>221963071990007026</t>
+  </si>
+  <si>
+    <t>006642940</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990146226100107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990135290490107026</t>
+  </si>
+  <si>
+    <t>The English historical library. : In three parts. Giving a short view and character of most of our historians either in print or manuscript: with an account of our records, law-books, coins, and other matters serviceable to the undertakers of a general history of England. The second edition corrected and augmented. /</t>
+  </si>
+  <si>
+    <t>Printed for Timothy Childe at the White-Hart and Robert Knaplock at the Bishop's-Head in St Paul's Church-Yard</t>
+  </si>
+  <si>
+    <t>Historians--England--Biography--Early works to 1800.</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>M.DCC.XIV. [1714]</t>
+  </si>
+  <si>
+    <t>221944283260007026</t>
+  </si>
+  <si>
+    <t>005401106</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135290490107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>E Theatro Sheldoniano</t>
+  </si>
+  <si>
+    <t>990108430110107026</t>
+  </si>
+  <si>
+    <t>[1720]</t>
+  </si>
+  <si>
+    <t>990144727970107026</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990144727970107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>[Oxf.]</t>
+  </si>
+  <si>
+    <t>990135051310107026</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135051310107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990132537230107026</t>
+  </si>
+  <si>
+    <t>Printed at the Theatre</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990132537230107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990143584850107026</t>
+  </si>
+  <si>
+    <t>The history of the revolutions that happened in the government of the Roman republic, English'd by mr. Ozell and others.</t>
+  </si>
+  <si>
+    <t>History Italy Roman period pre20</t>
+  </si>
+  <si>
+    <t>221718703330007026</t>
+  </si>
+  <si>
+    <t>006356449</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990143584850107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>990104522620107026</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990104522620107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>not-identified</t>
+  </si>
+  <si>
+    <t>B 6.3,4 Art.</t>
+  </si>
+  <si>
+    <t>Meyer, Jacques de, 1491-1552</t>
+  </si>
+  <si>
+    <t>M.D.LXI</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990136384690107026</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1641,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1351,13 +1656,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{89043630-9B9B-4BE9-903F-45E8C366F875}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1698,1510 +2034,1932 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A48EA-342C-4D04-84F5-0ED4A44B986A}">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="21.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" style="9"/>
+    <col min="22" max="22" width="12.81640625" customWidth="1"/>
+    <col min="24" max="24" width="15.54296875" customWidth="1"/>
+    <col min="25" max="25" width="29.6328125" customWidth="1"/>
+    <col min="26" max="26" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
       <c r="P1" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="Q1" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="R1" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="S1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="T1" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="V1" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="X1" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="Y1" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="Z1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>139</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20580771</v>
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1652</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M2" t="s">
+        <v>325</v>
+      </c>
+      <c r="N2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" t="s">
+        <v>330</v>
+      </c>
+      <c r="W2" t="s">
+        <v>331</v>
+      </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" t="s">
+        <v>335</v>
+      </c>
+      <c r="N3" t="s">
+        <v>336</v>
+      </c>
+      <c r="O3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>337</v>
+      </c>
+      <c r="U3" t="s">
+        <v>338</v>
+      </c>
+      <c r="V3" t="s">
+        <v>339</v>
+      </c>
+      <c r="W3" t="s">
+        <v>340</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="L4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M4" t="s">
+        <v>343</v>
+      </c>
+      <c r="N4" t="s">
+        <v>344</v>
+      </c>
+      <c r="O4" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>345</v>
+      </c>
+      <c r="R4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V4" t="s">
+        <v>347</v>
+      </c>
+      <c r="W4" t="s">
+        <v>348</v>
+      </c>
+      <c r="X4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I5" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" t="s">
+        <v>352</v>
+      </c>
+      <c r="N5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>354</v>
+      </c>
+      <c r="V5" t="s">
+        <v>355</v>
+      </c>
+      <c r="W5" t="s">
+        <v>356</v>
+      </c>
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>483</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>485</v>
+      </c>
+      <c r="V6" t="s">
+        <v>486</v>
+      </c>
+      <c r="W6" t="s">
+        <v>487</v>
+      </c>
+      <c r="X6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14813219</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>1719</v>
+      </c>
+      <c r="O7">
+        <v>1719</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="X7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1717</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="Z7" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I8" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" t="s">
+        <v>360</v>
+      </c>
+      <c r="M8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>362</v>
+      </c>
+      <c r="U8" t="s">
+        <v>363</v>
+      </c>
+      <c r="V8" t="s">
+        <v>364</v>
+      </c>
+      <c r="W8" t="s">
+        <v>365</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" t="s">
+        <v>369</v>
+      </c>
+      <c r="N9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O9" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>370</v>
+      </c>
+      <c r="U9" t="s">
+        <v>371</v>
+      </c>
+      <c r="V9" t="s">
+        <v>372</v>
+      </c>
+      <c r="W9" t="s">
+        <v>373</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>375</v>
+      </c>
+      <c r="L10" t="s">
+        <v>369</v>
+      </c>
+      <c r="N10" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>377</v>
+      </c>
+      <c r="U10" t="s">
+        <v>378</v>
+      </c>
+      <c r="V10" t="s">
+        <v>379</v>
+      </c>
+      <c r="W10" t="s">
+        <v>380</v>
+      </c>
+      <c r="X10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>381</v>
+      </c>
+      <c r="H11" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>383</v>
+      </c>
+      <c r="N11" t="s">
+        <v>384</v>
+      </c>
+      <c r="O11" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>385</v>
+      </c>
+      <c r="U11" t="s">
+        <v>386</v>
+      </c>
+      <c r="V11" t="s">
+        <v>387</v>
+      </c>
+      <c r="W11" t="s">
+        <v>388</v>
+      </c>
+      <c r="X11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M12" t="s">
+        <v>391</v>
+      </c>
+      <c r="N12" t="s">
+        <v>384</v>
+      </c>
+      <c r="O12" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>392</v>
+      </c>
+      <c r="U12" t="s">
+        <v>393</v>
+      </c>
+      <c r="V12" t="s">
+        <v>394</v>
+      </c>
+      <c r="W12" t="s">
+        <v>395</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1">
-        <v>14681986</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="L13" t="s">
+        <v>398</v>
+      </c>
+      <c r="N13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O13" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>399</v>
+      </c>
+      <c r="V13" t="s">
+        <v>400</v>
+      </c>
+      <c r="W13" t="s">
+        <v>401</v>
+      </c>
+      <c r="X13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="9">
-        <v>1533</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K14" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="L14" t="s">
+        <v>480</v>
+      </c>
+      <c r="N14">
+        <v>1720</v>
+      </c>
+      <c r="O14">
+        <v>1720</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="X4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
+      <c r="Z14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1">
-        <v>14207473</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="9">
-        <v>1655</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" t="s">
         <v>72</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I15" t="s">
+        <v>404</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+      <c r="N15" t="s">
+        <v>384</v>
+      </c>
+      <c r="O15" t="s">
+        <v>408</v>
+      </c>
+      <c r="P15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>409</v>
+      </c>
+      <c r="U15" t="s">
+        <v>410</v>
+      </c>
+      <c r="V15" t="s">
+        <v>411</v>
+      </c>
+      <c r="W15" t="s">
+        <v>412</v>
+      </c>
+      <c r="X15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="1">
-        <v>14358485</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1720</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1719</v>
-      </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14431417</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1719</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" t="s">
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="1">
-        <v>14146391</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1719</v>
-      </c>
-      <c r="H9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14172302</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1719</v>
-      </c>
-      <c r="H10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>121</v>
-      </c>
-      <c r="X10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14082643</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1718</v>
-      </c>
-      <c r="H11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="1">
-        <v>14432939</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1718</v>
-      </c>
-      <c r="H12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>133</v>
-      </c>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14186483</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1719</v>
-      </c>
-      <c r="H13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="4">
-        <v>9.9013253723010701E+17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1720</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13540715</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1718</v>
-      </c>
-      <c r="H15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>155</v>
-      </c>
-      <c r="X15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="1">
-        <v>13541041</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1717</v>
+      <c r="G16" t="s">
+        <v>413</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" t="s">
-        <v>160</v>
+        <v>414</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" t="s">
+        <v>301</v>
+      </c>
+      <c r="M16" t="s">
+        <v>416</v>
+      </c>
+      <c r="N16" t="s">
+        <v>336</v>
+      </c>
+      <c r="O16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P16" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>418</v>
+      </c>
+      <c r="U16" t="s">
+        <v>419</v>
+      </c>
+      <c r="V16" t="s">
+        <v>420</v>
+      </c>
+      <c r="W16" t="s">
+        <v>421</v>
       </c>
       <c r="X16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="1">
-        <v>13540710</v>
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1719</v>
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>422</v>
       </c>
       <c r="H17" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>166</v>
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17" t="s">
+        <v>301</v>
+      </c>
+      <c r="M17" t="s">
+        <v>425</v>
+      </c>
+      <c r="N17" t="s">
+        <v>273</v>
+      </c>
+      <c r="O17" t="s">
+        <v>426</v>
+      </c>
+      <c r="P17" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>427</v>
+      </c>
+      <c r="U17" t="s">
+        <v>419</v>
+      </c>
+      <c r="V17" t="s">
+        <v>428</v>
+      </c>
+      <c r="W17" t="s">
+        <v>429</v>
       </c>
       <c r="X17" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="1">
-        <v>13540713</v>
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1720</v>
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>430</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="I18" t="s">
+        <v>432</v>
+      </c>
+      <c r="L18" t="s">
         <v>170</v>
       </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>171</v>
+      <c r="M18" t="s">
+        <v>433</v>
+      </c>
+      <c r="N18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O18" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>434</v>
+      </c>
+      <c r="R18" t="s">
+        <v>435</v>
+      </c>
+      <c r="U18" t="s">
+        <v>436</v>
+      </c>
+      <c r="V18" t="s">
+        <v>437</v>
+      </c>
+      <c r="W18" t="s">
+        <v>438</v>
       </c>
       <c r="X18" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="1">
-        <v>14015899</v>
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1715</v>
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>439</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" t="s">
-        <v>181</v>
+        <v>83</v>
+      </c>
+      <c r="L19" t="s">
+        <v>441</v>
+      </c>
+      <c r="M19" t="s">
+        <v>442</v>
+      </c>
+      <c r="N19" t="s">
+        <v>443</v>
+      </c>
+      <c r="O19" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>445</v>
+      </c>
+      <c r="U19" t="s">
+        <v>446</v>
+      </c>
+      <c r="V19" t="s">
+        <v>447</v>
+      </c>
+      <c r="W19" t="s">
+        <v>448</v>
       </c>
       <c r="X19" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="4">
-        <v>9.9010843011010701E+17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="9">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="L20" t="s">
+        <v>293</v>
+      </c>
+      <c r="N20">
         <v>1720</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>188</v>
+      <c r="O20" t="s">
+        <v>472</v>
       </c>
       <c r="X20" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="Z20" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="4">
-        <v>9.9014622610010701E+17</v>
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1527</v>
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>454</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
-        <v>194</v>
+        <v>455</v>
+      </c>
+      <c r="L21" t="s">
+        <v>456</v>
+      </c>
+      <c r="N21" t="s">
+        <v>457</v>
+      </c>
+      <c r="O21" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>458</v>
+      </c>
+      <c r="V21" t="s">
+        <v>459</v>
+      </c>
+      <c r="W21" t="s">
+        <v>460</v>
       </c>
       <c r="X21" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="4">
-        <v>9.9014444175010701E+17</v>
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1718</v>
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>449</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>450</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>201</v>
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="N22" t="s">
+        <v>384</v>
+      </c>
+      <c r="O22" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>451</v>
+      </c>
+      <c r="V22" t="s">
+        <v>452</v>
+      </c>
+      <c r="W22" t="s">
+        <v>453</v>
       </c>
       <c r="X22" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="4">
-        <v>13256285</v>
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="9">
+        <v>95</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="N23">
         <v>1716</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>86</v>
+      <c r="O23">
+        <v>1716</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="X23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s">
         <v>39</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="6">
-        <v>9.9013505131010701E+17</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1719</v>
+        <v>106</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>209</v>
+        <v>97</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="L24" t="s">
+        <v>293</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="X24" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="Z24" t="s">
-        <v>211</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="6">
-        <v>9.9013529049010701E+17</v>
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1714</v>
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>461</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>217</v>
+        <v>462</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L25" t="s">
+        <v>406</v>
+      </c>
+      <c r="M25" t="s">
+        <v>464</v>
+      </c>
+      <c r="N25" t="s">
+        <v>465</v>
+      </c>
+      <c r="O25" t="s">
+        <v>466</v>
+      </c>
+      <c r="P25" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>467</v>
+      </c>
+      <c r="V25" t="s">
+        <v>468</v>
+      </c>
+      <c r="W25" t="s">
+        <v>469</v>
       </c>
       <c r="X25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="Z25" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="O26" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="Q26" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="V26" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="W26" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="X26" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="N27" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="O27" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="Q27" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="R27" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="U27" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="V27" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="X27" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="O28" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="Q28" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="R28" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="U28" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="V28" t="s">
-        <v>276</v>
+        <v>162</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="X28" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
-      </c>
-      <c r="K29" t="s">
-        <v>283</v>
+        <v>168</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="M29" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="O29" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="R29" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="U29" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="V29" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="W29" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="X29" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="N30" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="O30" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="Q30" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="R30" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="U30" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="V30" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="W30" t="s">
-        <v>304</v>
+        <v>190</v>
       </c>
       <c r="X30" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="H31" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="L31" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="M31" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="N31" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="O31" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="Q31" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="R31" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="U31" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="V31" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="W31" t="s">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="X31" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" t="s">
+        <v>211</v>
+      </c>
+      <c r="N32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>213</v>
+      </c>
+      <c r="R32" t="s">
+        <v>214</v>
+      </c>
+      <c r="U32" t="s">
+        <v>215</v>
+      </c>
+      <c r="V32" t="s">
+        <v>216</v>
+      </c>
+      <c r="W32" t="s">
+        <v>217</v>
+      </c>
+      <c r="X32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B32" t="s">
+      <c r="H33" t="s">
         <v>221</v>
       </c>
-      <c r="C32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I33" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" t="s">
         <v>223</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="H32" t="s">
-        <v>321</v>
-      </c>
-      <c r="I32" t="s">
-        <v>322</v>
-      </c>
-      <c r="J32" t="s">
-        <v>323</v>
-      </c>
-      <c r="L32" t="s">
-        <v>324</v>
-      </c>
-      <c r="M32" t="s">
-        <v>325</v>
-      </c>
-      <c r="N32" t="s">
-        <v>326</v>
-      </c>
-      <c r="O32" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>327</v>
-      </c>
-      <c r="R32" t="s">
-        <v>328</v>
-      </c>
-      <c r="U32" t="s">
-        <v>329</v>
-      </c>
-      <c r="V32" t="s">
-        <v>330</v>
-      </c>
-      <c r="W32" t="s">
-        <v>331</v>
-      </c>
-      <c r="X32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I33" t="s">
-        <v>336</v>
-      </c>
-      <c r="L33" t="s">
-        <v>337</v>
-      </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="O33" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="Q33" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="R33" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="U33" t="s">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="V33" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="W33" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="X33" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="F34" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="I34" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="Q34" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="R34" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="U34" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="V34" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="W34" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="X34" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>358</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="N35" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="O35" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="Q35" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="R35" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="U35" t="s">
-        <v>361</v>
+        <v>247</v>
       </c>
       <c r="V35" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="X35" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="F36" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="N36">
         <v>1720</v>
@@ -3210,405 +3968,504 @@
         <v>1720</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="X36" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="Z36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
       <c r="H37" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="I37" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="M37" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="N37" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="Q37" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="V37" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="W37" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="X37" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="F38" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="H38" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="I38" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="N38" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="Q38" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="V38" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="W38" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="X38" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="s">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="Z38" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="G40" s="10"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>170</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>284</v>
+      </c>
+      <c r="V39" t="s">
+        <v>285</v>
+      </c>
+      <c r="W39" t="s">
+        <v>286</v>
+      </c>
+      <c r="X39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1719</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1719</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>298</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="s">
+        <v>302</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>303</v>
+      </c>
+      <c r="P41" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>305</v>
+      </c>
+      <c r="V41" t="s">
+        <v>306</v>
+      </c>
+      <c r="W41" t="s">
+        <v>307</v>
+      </c>
+      <c r="X41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" t="s">
+        <v>312</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="N42" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" t="s">
+        <v>316</v>
+      </c>
+      <c r="P42" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>317</v>
+      </c>
+      <c r="V42" t="s">
+        <v>318</v>
+      </c>
+      <c r="W42" t="s">
+        <v>319</v>
+      </c>
+      <c r="X42" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="X43" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="H44" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>1561</v>
+      </c>
+      <c r="O44" t="s">
+        <v>494</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="X44" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="H45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="X45" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="N46">
+        <v>1654</v>
+      </c>
+      <c r="X46" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47">
+        <v>1704</v>
+      </c>
+      <c r="X47" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="G49"/>
+      <c r="I49" s="4"/>
+      <c r="K49"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="K50"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="D54" s="4"/>
+      <c r="G54"/>
+      <c r="I54" s="4"/>
+      <c r="K54"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A25">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Jur.BS">
+  <conditionalFormatting sqref="C23:C24 C14 C7 A1:A25">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Jur.BS">
       <formula>NOT(ISERROR(SEARCH("Jur.BS",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Jur.BS">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Jur.BS">
       <formula>NOT(ISERROR(SEARCH("Jur.BS",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Jur.Seld">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Jur.Seld">
       <formula>NOT(ISERROR(SEARCH("Jur.Seld",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Jur.BS">
+      <formula>NOT(ISERROR(SEARCH("Jur.BS",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Jur.BS">
+      <formula>NOT(ISERROR(SEARCH("Jur.BS",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Jur.Seld">
+      <formula>NOT(ISERROR(SEARCH("Jur.Seld",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K23" r:id="rId2" xr:uid="{018886E6-3466-438B-BFC2-E22BDD25CA47}"/>
-    <hyperlink ref="K20" r:id="rId3" xr:uid="{F126E42A-86D0-42E5-A1C6-53E67FDC3D27}"/>
-    <hyperlink ref="W35" r:id="rId4" xr:uid="{25C9A65C-30D5-449C-B700-F94C0CC66F5F}"/>
-    <hyperlink ref="W36" r:id="rId5" xr:uid="{8BA143D7-96EB-474B-A62D-136255BB7116}"/>
+    <hyperlink ref="K14" r:id="rId1" display="https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/ogbd98/alma990132537230107026" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="W35" r:id="rId2" xr:uid="{25C9A65C-30D5-449C-B700-F94C0CC66F5F}"/>
+    <hyperlink ref="W36" r:id="rId3" xr:uid="{8BA143D7-96EB-474B-A62D-136255BB7116}"/>
+    <hyperlink ref="W40" r:id="rId4" xr:uid="{1C7D144F-7461-48E5-8B43-369BCA1CAEB7}"/>
+    <hyperlink ref="W23" r:id="rId5" xr:uid="{EA390C4F-82EA-46CF-A89C-01F305AD8A08}"/>
+    <hyperlink ref="W24" r:id="rId6" xr:uid="{E52E82FC-4688-433D-81F3-F07D349DD7DA}"/>
+    <hyperlink ref="W14" r:id="rId7" xr:uid="{F8E1A11D-2394-4CC0-BB6C-8CF0459FEFFB}"/>
+    <hyperlink ref="W7" r:id="rId8" xr:uid="{D59AA2FE-78BC-44E7-94B4-D8EAE04CA790}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB055D48-538F-4AEE-B564-7DEDB7C1A45F}">
-  <dimension ref="A1:P7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4">
-        <v>15078336</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>1718</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="B3" s="6">
-        <v>13638469</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>1561</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5">
-        <v>19457345</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5">
-        <v>1654</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="4">
-        <v>13635566</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6">
-        <v>1704</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="P7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" xr:uid="{1B0C2FF7-7286-4A38-B78C-19566A88DB5E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/standOff_List.xlsx
+++ b/standOff_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Nextcloud\IBI\Masterarbeit\RegC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49F8C4-C2A4-40DC-891C-EE0FAB080799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFD950-DA56-4150-A2CA-D0E0B4D82E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="567">
   <si>
     <t>Author</t>
   </si>
@@ -1556,6 +1556,219 @@
   </si>
   <si>
     <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990136384690107026</t>
+  </si>
+  <si>
+    <t>M.DCC.XIX</t>
+  </si>
+  <si>
+    <t>O 3.1 Th.</t>
+  </si>
+  <si>
+    <t>990146444210107026</t>
+  </si>
+  <si>
+    <t>Sacred geography contained in six maps.</t>
+  </si>
+  <si>
+    <t>Theology Christian sacred works pre20</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>221999731720007026</t>
+  </si>
+  <si>
+    <t>006665915</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990146444210107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Sacred1716</t>
+  </si>
+  <si>
+    <t>S 3.18 Th.</t>
+  </si>
+  <si>
+    <t>G 3.11 Th.</t>
+  </si>
+  <si>
+    <t>990140066620107026</t>
+  </si>
+  <si>
+    <t>Cyril, Saint, Bishop of Jerusalem, approximately 315-386</t>
+  </si>
+  <si>
+    <t>Tou en hagiois patros hēmōn Kurillou ... ta heuriskomena panta ... cum nova interpretatione studio A.A. Toultée.</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990140066620107026</t>
+  </si>
+  <si>
+    <t>regC-bib-Cyril1720</t>
+  </si>
+  <si>
+    <t>J 4.17 Th.</t>
+  </si>
+  <si>
+    <t>990146365220107026</t>
+  </si>
+  <si>
+    <t>Quétif, Jacques.</t>
+  </si>
+  <si>
+    <t>Scriptores Ordinis prædicatorum recensiti, opus inchoavit J. Quétif, absolvit J. Echard.</t>
+  </si>
+  <si>
+    <t>Lutet. Par.</t>
+  </si>
+  <si>
+    <t>221635835930007026</t>
+  </si>
+  <si>
+    <t>006657759</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990146365220107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Quétif1719</t>
+  </si>
+  <si>
+    <t>T 10.1 Th.</t>
+  </si>
+  <si>
+    <t>M 1.2 Th.</t>
+  </si>
+  <si>
+    <t>A 7.11,12 Th.</t>
+  </si>
+  <si>
+    <t>990143810580107026</t>
+  </si>
+  <si>
+    <t>Vitringa, Campegius, 1659-1722</t>
+  </si>
+  <si>
+    <t>Commentarius in librum prophetiarum Iesaiæ: cum prolegomenis.</t>
+  </si>
+  <si>
+    <t>Leovardiæ</t>
+  </si>
+  <si>
+    <t>Isaiah--(Biblical prophet)</t>
+  </si>
+  <si>
+    <t>1714,20</t>
+  </si>
+  <si>
+    <t>221927535020007026</t>
+  </si>
+  <si>
+    <t>006380280</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990143810580107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Vitringa1714</t>
+  </si>
+  <si>
+    <t>M 5.11,12 Th.</t>
+  </si>
+  <si>
+    <t>P 7.8,9 Th.</t>
+  </si>
+  <si>
+    <t>990147168890107026</t>
+  </si>
+  <si>
+    <t>Trommius, Abraham.</t>
+  </si>
+  <si>
+    <t>Abrahami Trommii Concerdantiæ Græcæ versionis vulgo dictæ LXX interpretum, cujus voces secundum ordinem elementorum sermonis Græci digestæ recensentur, contra atque in opere Kircheriano factum fuerat.</t>
+  </si>
+  <si>
+    <t>Amst. &amp;c.</t>
+  </si>
+  <si>
+    <t>Bible. Old Testament Concordances.</t>
+  </si>
+  <si>
+    <t>221671418140007026</t>
+  </si>
+  <si>
+    <t>006745341</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990147168890107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Trommius1718</t>
+  </si>
+  <si>
+    <t>R 7.11,12 Th.</t>
+  </si>
+  <si>
+    <t>C 16.11 Th.</t>
+  </si>
+  <si>
+    <t>990130888040107026</t>
+  </si>
+  <si>
+    <t>Hippolytus, Antipope, approximately 170-235 or 236.</t>
+  </si>
+  <si>
+    <t>S. Hippolyti episcopi et martyris Opera, : non antea collecta, et partem nunc primum e MSS. in lucem edita Græce et Latine. Accedunt virorum doctorum notæ et animadversiones, ac præter aliorum commentarios in monumentum paschale Sancti Martyris tabula triplici ænea expressum, dissertationes integræ virorum clarissimorum Francisci Blanchini, et Jo. Vignolii, atque ex Virginii Valsechii et Philippi a Turre scriptis excerpta S. Hippolytum spectantia. Subjuncta appendix scriptorum dubiorum, supposititiorumque, nec non quæcunque reperiri potuere ex lucubrationibus Hippolyti Junioris Thebani. /</t>
+  </si>
+  <si>
+    <t>Sumtu Christiani Liebezeit</t>
+  </si>
+  <si>
+    <t>Hamburgi, :</t>
+  </si>
+  <si>
+    <t>Christian literature, Early--Greek authors--Early works to 1800.</t>
+  </si>
+  <si>
+    <t>Anno Christiano 1716. [-M DCC XIIX.].</t>
+  </si>
+  <si>
+    <t>221663651520007026</t>
+  </si>
+  <si>
+    <t>005940397</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990130888040107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Hippolytus1716</t>
+  </si>
+  <si>
+    <t>E 4.3 Th.</t>
+  </si>
+  <si>
+    <t>Bruyn, Cornelis de, 1652-1726 or 7.</t>
+  </si>
+  <si>
+    <t>Voyages de Corneille Le Brun par la Moscovie, en Perse, et aux Indes Orientales. : Ouvrage enrichi de plus de 320 tailles douces ... On y a ajoûté la route qu'a suivie Mr. Isbrants, ambassadeur de Moscovie, en traversant la Russie &amp; la Tartarie, pour se rendre à la Chine. Et quelques remarques contre Mrs. Chardin &amp; Kempfer. Avec une lettre écrite à l'auteur, sur ce sujet..</t>
+  </si>
+  <si>
+    <t>A Amsterdam</t>
+  </si>
+  <si>
+    <t>Chez les Freres Wetstein</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/permalink/44OXF_INST/35n82s/alma990137117820107026</t>
+  </si>
+  <si>
+    <t>regC-bib-Bruyn1718</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1854,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1657,6 +1870,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -2036,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A48EA-342C-4D04-84F5-0ED4A44B986A}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="Q24" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3310,6 +3524,12 @@
       <c r="L24" t="s">
         <v>293</v>
       </c>
+      <c r="N24">
+        <v>1719</v>
+      </c>
+      <c r="O24" t="s">
+        <v>496</v>
+      </c>
       <c r="W24" s="8" t="s">
         <v>477</v>
       </c>
@@ -4412,28 +4632,358 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="G49"/>
-      <c r="I49" s="4"/>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>497</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>498</v>
+      </c>
+      <c r="I48" t="s">
+        <v>499</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" t="s">
+        <v>500</v>
+      </c>
+      <c r="N48" t="s">
+        <v>501</v>
+      </c>
+      <c r="O48" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>502</v>
+      </c>
+      <c r="V48" t="s">
+        <v>503</v>
+      </c>
+      <c r="W48" t="s">
+        <v>504</v>
+      </c>
+      <c r="X48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="K49"/>
+      <c r="L49" t="s">
+        <v>456</v>
+      </c>
       <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="B50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="N49">
+        <v>1720</v>
+      </c>
+      <c r="W49" t="s">
+        <v>511</v>
+      </c>
+      <c r="X49" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>523</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
+        <v>514</v>
+      </c>
+      <c r="H50" t="s">
+        <v>515</v>
+      </c>
+      <c r="I50" t="s">
+        <v>516</v>
+      </c>
       <c r="K50"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="L50" t="s">
+        <v>517</v>
+      </c>
+      <c r="N50" t="s">
+        <v>273</v>
+      </c>
+      <c r="O50">
+        <v>1719</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>518</v>
+      </c>
+      <c r="V50" t="s">
+        <v>519</v>
+      </c>
+      <c r="W50" t="s">
+        <v>520</v>
+      </c>
+      <c r="X50" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>525</v>
+      </c>
+      <c r="H51" t="s">
+        <v>526</v>
+      </c>
+      <c r="I51" t="s">
+        <v>527</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51" t="s">
+        <v>528</v>
+      </c>
+      <c r="M51" t="s">
+        <v>529</v>
+      </c>
+      <c r="N51" t="s">
+        <v>465</v>
+      </c>
+      <c r="O51" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>531</v>
+      </c>
+      <c r="V51" t="s">
+        <v>532</v>
+      </c>
+      <c r="W51" t="s">
+        <v>533</v>
+      </c>
+      <c r="X51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>536</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>537</v>
+      </c>
+      <c r="H52" t="s">
+        <v>538</v>
+      </c>
+      <c r="I52" t="s">
+        <v>539</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52" t="s">
+        <v>540</v>
+      </c>
+      <c r="M52" t="s">
+        <v>541</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>542</v>
+      </c>
+      <c r="V52" t="s">
+        <v>543</v>
+      </c>
+      <c r="W52" t="s">
+        <v>544</v>
+      </c>
+      <c r="X52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>547</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>548</v>
+      </c>
+      <c r="H53" t="s">
+        <v>549</v>
+      </c>
+      <c r="I53" t="s">
+        <v>550</v>
+      </c>
+      <c r="K53" t="s">
+        <v>551</v>
+      </c>
+      <c r="L53" t="s">
+        <v>552</v>
+      </c>
+      <c r="M53" t="s">
+        <v>553</v>
+      </c>
+      <c r="N53" t="s">
+        <v>501</v>
+      </c>
+      <c r="O53" t="s">
+        <v>554</v>
+      </c>
+      <c r="P53" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>555</v>
+      </c>
+      <c r="V53" t="s">
+        <v>556</v>
+      </c>
+      <c r="W53" t="s">
+        <v>557</v>
+      </c>
+      <c r="X53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="D54" s="4"/>
       <c r="G54"/>
-      <c r="I54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="K54"/>
+      <c r="L54" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="N54">
+        <v>1718</v>
+      </c>
+      <c r="O54">
+        <v>1718</v>
+      </c>
+      <c r="W54" t="s">
+        <v>564</v>
+      </c>
+      <c r="X54" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>566</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C23:C24 C14 C7 A1:A25">
+  <conditionalFormatting sqref="A1:A25 C7 C14 C23:C24">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Jur.BS">
       <formula>NOT(ISERROR(SEARCH("Jur.BS",A1)))</formula>
     </cfRule>

--- a/standOff_List.xlsx
+++ b/standOff_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Nextcloud\IBI\Masterarbeit\RegC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFD950-DA56-4150-A2CA-D0E0B4D82E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1448FF-6E4E-4A38-93F6-9D4D7E5F1025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
   </bookViews>
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A48EA-342C-4D04-84F5-0ED4A44B986A}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q24" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/standOff_List.xlsx
+++ b/standOff_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Nextcloud\IBI\Masterarbeit\RegC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1448FF-6E4E-4A38-93F6-9D4D7E5F1025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B5E634-CDD9-4FAB-8150-ED7968AC882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BCA537D3-F40D-4EEF-B5FC-07CC083FCE78}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="585">
   <si>
     <t>Author</t>
   </si>
@@ -1769,6 +1769,60 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>regC-bib-Aristides1722</t>
+  </si>
+  <si>
+    <t>990135456420107026</t>
+  </si>
+  <si>
+    <t>Aristides, Aelius</t>
+  </si>
+  <si>
+    <t>Aelii Aristidis Adrianensis Opera omnia Graece &amp; Latine, : in duo volumina distributa</t>
+  </si>
+  <si>
+    <t>the edition subscibed to is likely the 1722 edition; the book is not registered in the entries for 1722sq. The copy in II 29 Art. has another provenance; however, J. Bowles is listed as a subscriber in the edition.</t>
+  </si>
+  <si>
+    <t>8° C 81 Jur.</t>
+  </si>
+  <si>
+    <t>990135340130107026</t>
+  </si>
+  <si>
+    <t>Du-Bois, P. B.</t>
+  </si>
+  <si>
+    <t>Useful reflections on several subjects, suited to the present times: each chapter beginning with a diverting fable; to which is added a proper moral: with curious observations from the best histories. Done into English, from a French manuscript, by P. B. Du-Bois.</t>
+  </si>
+  <si>
+    <t>Printed for the author and are to be sold by Anth Peisley and Will Wells in Oxford</t>
+  </si>
+  <si>
+    <t>[Oxford] :</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>1721.</t>
+  </si>
+  <si>
+    <t>221744579340007026</t>
+  </si>
+  <si>
+    <t>!!! 18th-century panelled calf over pasteboards with sprinkled red-edged leaves. Shelfmark in black ink on fore edge; !!! See Register C (Library Record c. 854), pencil fol. 9r for 1720 and 20r for 1721, detailing that the book was subscribed for by the Bodleian with a first payment of £ 0-2-0 in 1720 and a second payment of the same amount in 1721.; !!! 21 cm.</t>
+  </si>
+  <si>
+    <t>005412909</t>
+  </si>
+  <si>
+    <t>https://solo.bodleian.ox.ac.uk/discovery/search?query=any,contains,990135340130107026&amp;tab=Everything&amp;search_scope=MyInst_and_CI&amp;vid=44OXF_INST:SOLO</t>
+  </si>
+  <si>
+    <t>regC-bib-Du-Bois1721</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1908,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1871,6 +1925,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -2248,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A48EA-342C-4D04-84F5-0ED4A44B986A}">
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -4683,7 +4738,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:29">
       <c r="A49" s="6" t="s">
         <v>106</v>
       </c>
@@ -4726,7 +4781,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -4777,7 +4832,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -4831,7 +4886,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -4885,7 +4940,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -4944,7 +4999,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:29">
       <c r="D54" s="4"/>
       <c r="G54"/>
       <c r="H54" s="4" t="s">
@@ -4980,6 +5035,97 @@
       </c>
       <c r="AA54" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="H55" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="I55" t="s">
+        <v>570</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="M55" t="s">
+        <v>470</v>
+      </c>
+      <c r="N55">
+        <v>1722</v>
+      </c>
+      <c r="Q55" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="X55" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>572</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>573</v>
+      </c>
+      <c r="H56" t="s">
+        <v>574</v>
+      </c>
+      <c r="I56" t="s">
+        <v>575</v>
+      </c>
+      <c r="K56" t="s">
+        <v>576</v>
+      </c>
+      <c r="L56" t="s">
+        <v>577</v>
+      </c>
+      <c r="N56" t="s">
+        <v>578</v>
+      </c>
+      <c r="O56" t="s">
+        <v>579</v>
+      </c>
+      <c r="P56" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>580</v>
+      </c>
+      <c r="U56" t="s">
+        <v>581</v>
+      </c>
+      <c r="V56" t="s">
+        <v>582</v>
+      </c>
+      <c r="W56" t="s">
+        <v>583</v>
+      </c>
+      <c r="X56" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
